--- a/biology/Virologie/Idaeovirus/Idaeovirus.xlsx
+++ b/biology/Virologie/Idaeovirus/Idaeovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idaeovirus est un genre de virus de la famille des Mayoviridae, qui comprend deux espèces acceptées par l'ICTV. Ce sont des virus à ARN à simple brin à polarité positive, à génome tripartite, classés dans le groupe IV de la classification Baltimore. Ces virus infectent les plantes (phytovirus). Aucun vecteur ne semble impliqué dans la transmission des virus.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Idaeovirus », est dérivé du nom scientifique du framboisier,  Rubus idaeus,  plante-hôte sur laquelle a été isolée pour la première fois  l'espèce-type du genre, Raspberry bushy dwarf virus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Idaeovirus », est dérivé du nom scientifique du framboisier,  Rubus idaeus,  plante-hôte sur laquelle a été isolée pour la première fois  l'espèce-type du genre, Raspberry bushy dwarf virus.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non-enveloppées de forme parasphérique, à symétrie icosaédrique (T=3), mais légèrement aplaties, d'environ 33 nm de diamètre. Les trois composants du génome, 2 ARN génomiques et 1 sous-génomique (ARNsg) sont répartis dans des particules séparées[3].
-Le génome, segmenté, tripartite, est constitué de molécules d'ARN à simple brin de polarité positive, linéaire, dont la taille est respectivement de 5,4 kb (ARN1), 2,2 kb (ARN2) et 1 kb (ARNsg3). L'extrémité 3'  des différents ARN peut former une structure tige-boucle et n'est polyadénylée[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non-enveloppées de forme parasphérique, à symétrie icosaédrique (T=3), mais légèrement aplaties, d'environ 33 nm de diamètre. Les trois composants du génome, 2 ARN génomiques et 1 sous-génomique (ARNsg) sont répartis dans des particules séparées.
+Le génome, segmenté, tripartite, est constitué de molécules d'ARN à simple brin de polarité positive, linéaire, dont la taille est respectivement de 5,4 kb (ARN1), 2,2 kb (ARN2) et 1 kb (ARNsg3). L'extrémité 3'  des différents ARN peut former une structure tige-boucle et n'est polyadénylée.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 janvier 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 janvier 2021) :
 Privet idaeovirus  (PrLBaV)
 Raspberry bushy dwarf virus (RBDV)
 non-classés
